--- a/medicine/Enfance/Éveil_et_Découvertes/Éveil_et_Découvertes.xlsx
+++ b/medicine/Enfance/Éveil_et_Découvertes/Éveil_et_Découvertes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89veil_et_D%C3%A9couvertes</t>
+          <t>Éveil_et_Découvertes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Éditions Éveil et Découvertes[1] sont une maison d'édition française de littérature d'enfance et de jeunesse fondée en 2005 à Chalon-sur-Saône.
+Les Éditions Éveil et Découvertes sont une maison d'édition française de littérature d'enfance et de jeunesse fondée en 2005 à Chalon-sur-Saône.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89veil_et_D%C3%A9couvertes</t>
+          <t>Éveil_et_Découvertes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison est fondée en 2005 à Chalon-sur-Saône, où son siège se trouve encore aujourd'hui[2]. Depuis 2016, Éveil et Découvertes co-organise le Salon du Livre Jeunesse de Chalon-sur-Saône en mai, à l'occasion duquel de nombreux éditeurs jeunesse sont conviés aux Salons du Colisée[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison est fondée en 2005 à Chalon-sur-Saône, où son siège se trouve encore aujourd'hui. Depuis 2016, Éveil et Découvertes co-organise le Salon du Livre Jeunesse de Chalon-sur-Saône en mai, à l'occasion duquel de nombreux éditeurs jeunesse sont conviés aux Salons du Colisée,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89veil_et_D%C3%A9couvertes</t>
+          <t>Éveil_et_Découvertes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,25 +559,182 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ligne éditoriale
-La maison définit son offre comme s'adressant aux enfants de 0 à 15 ans, aux parents et aux professionnels de la petite enfance et de l'enfance[2]. Des professionnels eux-mêmes ont déjà contribué à des titres d'Éveil et Découvertes, comme le psychomotricien Laurent Lahaye. Certains ouvrages sont proposés avec des fiches pédagogiques, comme les albums de la collection « Cali », avec des propositions et des outils supplémentaires pour aider les enseignants à s'en servir en classe[5].
-Éveil et Découvertes a la particularité de réserver toujours une part importante de livre-CD et de CD dans son catalogue. Plusieurs de ces livres-CD font d'ailleurs partie des plus connus de la maison d'édition, tel L'école des fables, ouvrage illustré par Monsieur B., dont les chansons sont composées par Thomas Semence et interprétées par de nombreuses personnalités dont Jean-Louis Aubert, Joyce Jonathan ou encore Doc Gynéco[6]. L'ouvrage a rencontré un certain succès dans plusieurs écoles, et a donné naissance à un spectacle animé par Thomas Semence lui-même et quelques-uns des interprètes, avec notamment une date à l'Européen le 2 décembre 2017[7],[8].
-Au-delà des CD et livres-CD, Éveil et Découvertes, comme la plupart des maisons d'édition de littérature jeunesse, publie des albums illustrés et des romans, comme la trilogie du Tourneur de Page de Muriel Zürcher, dont le premier tome a reçu le prix Littérado en 2013[9],[10].
-La maison d'édition a également réalisé, en collaboration avec l'historien Raphaël Dargent, une collection baptisée « Grands Personnages Historiques » composées de livres grand format présentant des personnages historiques tels Charlemagne, Louis XIV ou Marie-Antoinette[11].
-Collections
-Albums
-« Cali » (6 albums)
+          <t>Ligne éditoriale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison définit son offre comme s'adressant aux enfants de 0 à 15 ans, aux parents et aux professionnels de la petite enfance et de l'enfance. Des professionnels eux-mêmes ont déjà contribué à des titres d'Éveil et Découvertes, comme le psychomotricien Laurent Lahaye. Certains ouvrages sont proposés avec des fiches pédagogiques, comme les albums de la collection « Cali », avec des propositions et des outils supplémentaires pour aider les enseignants à s'en servir en classe.
+Éveil et Découvertes a la particularité de réserver toujours une part importante de livre-CD et de CD dans son catalogue. Plusieurs de ces livres-CD font d'ailleurs partie des plus connus de la maison d'édition, tel L'école des fables, ouvrage illustré par Monsieur B., dont les chansons sont composées par Thomas Semence et interprétées par de nombreuses personnalités dont Jean-Louis Aubert, Joyce Jonathan ou encore Doc Gynéco. L'ouvrage a rencontré un certain succès dans plusieurs écoles, et a donné naissance à un spectacle animé par Thomas Semence lui-même et quelques-uns des interprètes, avec notamment une date à l'Européen le 2 décembre 2017,.
+Au-delà des CD et livres-CD, Éveil et Découvertes, comme la plupart des maisons d'édition de littérature jeunesse, publie des albums illustrés et des romans, comme la trilogie du Tourneur de Page de Muriel Zürcher, dont le premier tome a reçu le prix Littérado en 2013,.
+La maison d'édition a également réalisé, en collaboration avec l'historien Raphaël Dargent, une collection baptisée « Grands Personnages Historiques » composées de livres grand format présentant des personnages historiques tels Charlemagne, Louis XIV ou Marie-Antoinette.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éveil_et_Découvertes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89veil_et_D%C3%A9couvertes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La maison d'édition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Cali » (6 albums)
 « Mini-Rimes » (7 albums)
 « Petites Philos / Mythes Philosophiques » (4 albums)
 « Les Enquêtes de l'inspecteur Bubulle » (4 albums)
-« Mon imagier des chiffres et des couleurs » (6 albums)
-Livres grand format
-« Grands Personnages Historiques » (4 livres)
-CD / livres audio
-« Coffrets 50 Comptines » (5 CD)
-« Enfants Sages » (7 CD)
-Romans
-« Vendredi Soir »
+« Mon imagier des chiffres et des couleurs » (6 albums)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éveil_et_Découvertes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89veil_et_D%C3%A9couvertes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>La maison d'édition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Livres grand format</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Grands Personnages Historiques » (4 livres)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éveil_et_Découvertes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89veil_et_D%C3%A9couvertes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>La maison d'édition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CD / livres audio</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« Coffrets 50 Comptines » (5 CD)
+« Enfants Sages » (7 CD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éveil_et_Découvertes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89veil_et_D%C3%A9couvertes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>La maison d'édition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« Vendredi Soir »
 Le Tourneur de Page (Muriel Zürcher)
 Tome 1 : Passage en Outre-Monde  (ISBN 9782353660872)
 Tome 2 : Vers l'inconnu  (ISBN 9782353661725)
@@ -578,31 +749,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89veil_et_D%C3%A9couvertes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éveil_et_Découvertes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89veil_et_D%C3%A9couvertes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Quelques auteurs et artistes contributeurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alain Absire (saga Le chevalier à l'armure d'argent)
